--- a/code/fungus_data.xlsx
+++ b/code/fungus_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15156\Desktop\MCM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15156\Desktop\MCM\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACF3752-8834-4336-B8E3-CB79009DDEB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B873841-5F82-4C1E-904C-12A896F54009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C39E6452-0143-4023-A75C-E8FB0E1B2151}"/>
   </bookViews>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08FE992-8EAE-4289-9B10-25380743E3EC}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -924,7 +924,7 @@
         <v>6.46</v>
       </c>
       <c r="H15" s="1">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>6.28</v>
